--- a/xjh/TEST/Onera/postprocess.xlsx
+++ b/xjh/TEST/Onera/postprocess.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xjh/thesis/xjh/TEST/Onera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547F822-300B-8A44-BCA0-D40301F34014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6BE61C-C17C-2242-8D21-141FDEB69A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{E813E3D2-8B92-5C49-8DD6-185F646B6F3F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{E813E3D2-8B92-5C49-8DD6-185F646B6F3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="coarse_CPU" sheetId="1" r:id="rId1"/>
-    <sheet name="ILU0_GPU_coarse" sheetId="4" r:id="rId2"/>
-    <sheet name="ILU1_GPU_coarse" sheetId="5" r:id="rId3"/>
+    <sheet name="CPU" sheetId="1" r:id="rId1"/>
+    <sheet name="ILU0_GPU" sheetId="4" r:id="rId2"/>
+    <sheet name="ILU1_GPU" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -571,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BEE77C-FC9B-2A4B-B70C-ACB86D236C97}">
   <dimension ref="A1:BP256"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="83" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="83" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
@@ -8834,8 +8834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60AECBB-FA79-814B-BF8F-04A58F7DEA5D}">
   <dimension ref="A1:AA137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="H1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8918,25 +8918,25 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.3690899999999995E-2</v>
+        <v>6.6723199999999996E-2</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>8.9468199999999994E-3</v>
+        <v>7.1945300000000002E-3</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>4.67908E-2</v>
+        <v>5.1632499999999998E-2</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3">
-        <v>2.6626E-2</v>
+        <v>2.2584300000000002E-2</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -8944,17 +8944,17 @@
       <c r="K3">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="4">
-        <v>0.25921630000000001</v>
+        <v>0.25425569999999997</v>
       </c>
       <c r="N3" t="s">
         <v>17</v>
       </c>
       <c r="O3">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T3" s="4"/>
     </row>
@@ -8966,25 +8966,25 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6.5071199999999996E-2</v>
+        <v>8.1473599999999993E-2</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>8.6396500000000005E-3</v>
+        <v>7.2035199999999997E-3</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>4.8670900000000003E-2</v>
+        <v>6.6366499999999995E-2</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4">
-        <v>2.5599E-2</v>
+        <v>2.2629400000000001E-2</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -8992,17 +8992,17 @@
       <c r="K4">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="4">
-        <v>0.14932300000000001</v>
+        <v>0.15140590000000001</v>
       </c>
       <c r="N4" t="s">
         <v>17</v>
       </c>
       <c r="O4">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T4" s="4"/>
     </row>
@@ -9014,25 +9014,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5.7105400000000001E-2</v>
+        <v>6.27384E-2</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>8.6602599999999995E-3</v>
+        <v>7.0443800000000003E-3</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
-        <v>4.0666099999999997E-2</v>
+        <v>4.1128999999999999E-2</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5">
-        <v>2.5501599999999999E-2</v>
+        <v>2.18286E-2</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -9040,17 +9040,17 @@
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="4">
-        <v>9.1487250000000006E-2</v>
+        <v>9.4025590000000006E-2</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
       </c>
       <c r="O5">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T5" s="4"/>
     </row>
@@ -9062,25 +9062,25 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6.2621399999999994E-2</v>
+        <v>6.2742199999999998E-2</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>8.6168300000000007E-3</v>
+        <v>7.0545299999999998E-3</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6">
-        <v>4.6225099999999998E-2</v>
+        <v>4.7653500000000001E-2</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6">
-        <v>2.5454600000000001E-2</v>
+        <v>2.1754900000000001E-2</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -9088,17 +9088,17 @@
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="4">
-        <v>5.4185839999999999E-2</v>
+        <v>5.648856E-2</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
       </c>
       <c r="O6">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T6" s="4"/>
     </row>
@@ -9110,25 +9110,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.1150900000000001E-2</v>
+        <v>5.3052799999999997E-2</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>8.6604200000000003E-3</v>
+        <v>7.0112600000000001E-3</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7">
-        <v>4.4649099999999997E-2</v>
+        <v>3.8389199999999998E-2</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7">
-        <v>2.55406E-2</v>
+        <v>2.1751699999999999E-2</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -9136,17 +9136,17 @@
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="4">
-        <v>3.5542219999999999E-2</v>
+        <v>3.6729959999999999E-2</v>
       </c>
       <c r="N7" t="s">
         <v>17</v>
       </c>
       <c r="O7">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T7" s="4"/>
     </row>
@@ -9158,25 +9158,25 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.1763999999999999E-2</v>
+        <v>6.24141E-2</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>8.6354599999999993E-3</v>
+        <v>7.0004500000000001E-3</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8">
-        <v>4.5348199999999998E-2</v>
+        <v>4.4733799999999997E-2</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8">
-        <v>2.5520999999999999E-2</v>
+        <v>2.1772300000000001E-2</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -9184,17 +9184,17 @@
       <c r="K8">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="4">
-        <v>2.7713330000000001E-2</v>
+        <v>2.773873E-2</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T8" s="4"/>
     </row>
@@ -9206,25 +9206,25 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.1049199999999998E-2</v>
+        <v>5.8358300000000002E-2</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>8.6341400000000002E-3</v>
+        <v>7.0232999999999997E-3</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9">
-        <v>4.1838E-2</v>
+        <v>4.12217E-2</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9">
-        <v>2.5538600000000002E-2</v>
+        <v>2.1723200000000002E-2</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -9232,17 +9232,17 @@
       <c r="K9">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="4">
-        <v>1.8913200000000002E-2</v>
+        <v>1.8948799999999998E-2</v>
       </c>
       <c r="N9" t="s">
         <v>17</v>
       </c>
       <c r="O9">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T9" s="4"/>
     </row>
@@ -9254,25 +9254,25 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>5.9787E-2</v>
+        <v>5.6659099999999997E-2</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>8.6479399999999998E-3</v>
+        <v>7.0342099999999999E-3</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10">
-        <v>4.3405100000000002E-2</v>
+        <v>4.1927800000000001E-2</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10">
-        <v>2.5442300000000001E-2</v>
+        <v>2.1748799999999999E-2</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -9280,17 +9280,17 @@
       <c r="K10">
         <v>10</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="4">
-        <v>1.131391E-2</v>
+        <v>1.1463900000000001E-2</v>
       </c>
       <c r="N10" t="s">
         <v>17</v>
       </c>
       <c r="O10">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T10" s="4"/>
     </row>
@@ -9302,25 +9302,25 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>6.3944600000000004E-2</v>
+        <v>7.1766099999999999E-2</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11">
-        <v>8.6646999999999991E-3</v>
+        <v>7.04179E-3</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11">
-        <v>4.7452000000000001E-2</v>
+        <v>5.71259E-2</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11">
-        <v>2.5507800000000001E-2</v>
+        <v>2.1727199999999999E-2</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -9328,17 +9328,17 @@
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="4">
-        <v>7.1471089999999996E-3</v>
+        <v>7.2702000000000001E-3</v>
       </c>
       <c r="N11" t="s">
         <v>17</v>
       </c>
       <c r="O11">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T11" s="4"/>
     </row>
@@ -9350,25 +9350,25 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.1934500000000003E-2</v>
+        <v>7.2000800000000004E-2</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>8.6284499999999993E-3</v>
+        <v>7.0248300000000001E-3</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12">
-        <v>4.5529E-2</v>
+        <v>5.72726E-2</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12">
-        <v>2.5518099999999998E-2</v>
+        <v>2.1742600000000001E-2</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -9376,17 +9376,17 @@
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="4">
-        <v>7.2969530000000001E-3</v>
+        <v>7.3022139999999996E-3</v>
       </c>
       <c r="N12" t="s">
         <v>17</v>
       </c>
       <c r="O12">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T12" s="4"/>
     </row>
@@ -9398,25 +9398,25 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>6.4402399999999999E-2</v>
+        <v>6.2824400000000002E-2</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>8.6149399999999998E-3</v>
+        <v>7.0337000000000004E-3</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13">
-        <v>4.7914999999999999E-2</v>
+        <v>4.33715E-2</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13">
-        <v>2.5521200000000001E-2</v>
+        <v>2.1715000000000002E-2</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -9424,17 +9424,17 @@
       <c r="K13">
         <v>10</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="4">
-        <v>9.2312309999999995E-3</v>
+        <v>9.2509840000000003E-3</v>
       </c>
       <c r="N13" t="s">
         <v>17</v>
       </c>
       <c r="O13">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T13" s="4"/>
     </row>
@@ -9446,25 +9446,25 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>6.1765300000000002E-2</v>
+        <v>5.6274999999999999E-2</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>8.63827E-3</v>
+        <v>7.0416599999999999E-3</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14">
-        <v>4.5351599999999999E-2</v>
+        <v>4.1551900000000003E-2</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14">
-        <v>2.55068E-2</v>
+        <v>2.1759000000000001E-2</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -9472,17 +9472,17 @@
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="4">
-        <v>1.0485380000000001E-2</v>
+        <v>1.061322E-2</v>
       </c>
       <c r="N14" t="s">
         <v>17</v>
       </c>
       <c r="O14">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T14" s="4"/>
     </row>
@@ -9494,25 +9494,25 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>6.2702800000000003E-2</v>
+        <v>6.2234999999999999E-2</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15">
-        <v>8.6278399999999995E-3</v>
+        <v>7.03859E-3</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>4.6267599999999999E-2</v>
+        <v>4.4670300000000003E-2</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15">
-        <v>2.5497599999999999E-2</v>
+        <v>2.1717E-2</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -9520,17 +9520,17 @@
       <c r="K15">
         <v>10</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0380779999999999E-2</v>
+        <v>1.047885E-2</v>
       </c>
       <c r="N15" t="s">
         <v>17</v>
       </c>
       <c r="O15">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T15" s="4"/>
     </row>
@@ -9542,25 +9542,25 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>6.2940999999999997E-2</v>
+        <v>7.5123099999999998E-2</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16">
-        <v>8.6366099999999994E-3</v>
+        <v>7.0658200000000004E-3</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16">
-        <v>4.5271899999999997E-2</v>
+        <v>4.4610999999999998E-2</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16">
-        <v>2.5484300000000001E-2</v>
+        <v>2.17836E-2</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -9568,17 +9568,17 @@
       <c r="K16">
         <v>10</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M16" s="4">
-        <v>9.3335410000000008E-3</v>
+        <v>9.2253189999999992E-3</v>
       </c>
       <c r="N16" t="s">
         <v>17</v>
       </c>
       <c r="O16">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T16" s="4"/>
     </row>
@@ -9590,25 +9590,25 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>6.3125200000000006E-2</v>
+        <v>5.7655400000000002E-2</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17">
-        <v>8.6660799999999996E-3</v>
+        <v>7.0518100000000004E-3</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17">
-        <v>4.40235E-2</v>
+        <v>4.2972200000000002E-2</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>2.5493399999999999E-2</v>
+        <v>2.1752899999999999E-2</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -9616,17 +9616,17 @@
       <c r="K17">
         <v>10</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="4">
-        <v>7.6792270000000003E-3</v>
+        <v>7.6650549999999996E-3</v>
       </c>
       <c r="N17" t="s">
         <v>17</v>
       </c>
       <c r="O17">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T17" s="4"/>
     </row>
@@ -9638,25 +9638,25 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>6.9113400000000005E-2</v>
+        <v>5.5438899999999999E-2</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18">
-        <v>8.6583000000000007E-3</v>
+        <v>7.0248000000000003E-3</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18">
-        <v>4.9704499999999999E-2</v>
+        <v>4.0689200000000002E-2</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18">
-        <v>2.55068E-2</v>
+        <v>2.1764100000000002E-2</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -9664,17 +9664,17 @@
       <c r="K18">
         <v>10</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="4">
-        <v>6.2166110000000004E-3</v>
+        <v>6.4797090000000002E-3</v>
       </c>
       <c r="N18" t="s">
         <v>17</v>
       </c>
       <c r="O18">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T18" s="4"/>
     </row>
@@ -9686,25 +9686,25 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>6.2238700000000001E-2</v>
+        <v>7.2331000000000006E-2</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19">
-        <v>8.6370200000000005E-3</v>
+        <v>7.2187199999999997E-3</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19">
-        <v>4.3092900000000003E-2</v>
+        <v>5.5353100000000002E-2</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19">
-        <v>2.5530299999999999E-2</v>
+        <v>2.26161E-2</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -9712,17 +9712,17 @@
       <c r="K19">
         <v>10</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="4">
-        <v>5.9671749999999999E-3</v>
+        <v>6.3672490000000002E-3</v>
       </c>
       <c r="N19" t="s">
         <v>17</v>
       </c>
       <c r="O19">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T19" s="4"/>
     </row>
@@ -9734,25 +9734,25 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>6.5069399999999999E-2</v>
+        <v>6.1575400000000002E-2</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20">
-        <v>8.6381099999999992E-3</v>
+        <v>7.0480600000000001E-3</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20">
-        <v>4.8651600000000003E-2</v>
+        <v>4.4798200000000003E-2</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20">
-        <v>2.54997E-2</v>
+        <v>2.1738500000000001E-2</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -9760,17 +9760,17 @@
       <c r="K20">
         <v>10</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="4">
-        <v>6.5671150000000001E-3</v>
+        <v>6.9605830000000002E-3</v>
       </c>
       <c r="N20" t="s">
         <v>17</v>
       </c>
       <c r="O20">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T20" s="4"/>
     </row>
@@ -9782,25 +9782,25 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>6.8848300000000001E-2</v>
+        <v>6.5510499999999999E-2</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21">
-        <v>8.6324799999999997E-3</v>
+        <v>7.0563800000000001E-3</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21">
-        <v>4.9525399999999997E-2</v>
+        <v>5.0636899999999999E-2</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21">
-        <v>2.5537500000000001E-2</v>
+        <v>2.1754800000000001E-2</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -9808,17 +9808,17 @@
       <c r="K21">
         <v>10</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="4">
-        <v>7.1207420000000002E-3</v>
+        <v>7.466912E-3</v>
       </c>
       <c r="N21" t="s">
         <v>17</v>
       </c>
       <c r="O21">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T21" s="4"/>
     </row>
@@ -9830,25 +9830,25 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>5.9802000000000001E-2</v>
+        <v>5.8516699999999998E-2</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22">
-        <v>8.6132499999999994E-3</v>
+        <v>7.0545599999999997E-3</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22">
-        <v>4.3365800000000003E-2</v>
+        <v>4.3709600000000001E-2</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22">
-        <v>2.5510999999999999E-2</v>
+        <v>2.1759899999999999E-2</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -9856,17 +9856,17 @@
       <c r="K22">
         <v>10</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="4">
-        <v>7.4675150000000001E-3</v>
+        <v>7.6814300000000004E-3</v>
       </c>
       <c r="N22" t="s">
         <v>17</v>
       </c>
       <c r="O22">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T22" s="4"/>
     </row>
@@ -9878,25 +9878,25 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>6.4193799999999995E-2</v>
+        <v>6.8897299999999995E-2</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>8.6210200000000001E-3</v>
+        <v>7.0520599999999998E-3</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23">
-        <v>4.4655899999999998E-2</v>
+        <v>3.96006E-2</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23">
-        <v>2.5506899999999999E-2</v>
+        <v>2.17825E-2</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -9904,17 +9904,17 @@
       <c r="K23">
         <v>10</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M23" s="4">
-        <v>7.5672680000000003E-3</v>
+        <v>7.5744250000000001E-3</v>
       </c>
       <c r="N23" t="s">
         <v>17</v>
       </c>
       <c r="O23">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T23" s="4"/>
     </row>
@@ -9926,25 +9926,25 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>6.2190700000000002E-2</v>
+        <v>6.6839399999999993E-2</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24">
-        <v>8.6255700000000008E-3</v>
+        <v>7.0363800000000001E-3</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>4.5682800000000003E-2</v>
+        <v>4.6696300000000003E-2</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24">
-        <v>2.5513999999999998E-2</v>
+        <v>2.1720199999999999E-2</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -9952,17 +9952,17 @@
       <c r="K24">
         <v>10</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="4">
-        <v>7.083382E-3</v>
+        <v>6.9022049999999998E-3</v>
       </c>
       <c r="N24" t="s">
         <v>17</v>
       </c>
       <c r="O24">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T24" s="4"/>
     </row>
@@ -9974,25 +9974,25 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>6.1422200000000003E-2</v>
+        <v>6.4527299999999996E-2</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25">
-        <v>8.6449000000000005E-3</v>
+        <v>7.0734700000000001E-3</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25">
-        <v>4.4888699999999997E-2</v>
+        <v>4.1693099999999997E-2</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25">
-        <v>2.5497599999999999E-2</v>
+        <v>2.17416E-2</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
@@ -10000,17 +10000,17 @@
       <c r="K25">
         <v>10</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M25" s="4">
-        <v>5.777969E-3</v>
+        <v>5.635012E-3</v>
       </c>
       <c r="N25" t="s">
         <v>17</v>
       </c>
       <c r="O25">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T25" s="4"/>
     </row>
@@ -10022,25 +10022,25 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>5.72002E-2</v>
+        <v>5.9170899999999998E-2</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26">
-        <v>8.6527700000000006E-3</v>
+        <v>7.06035E-3</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26">
-        <v>4.0711700000000003E-2</v>
+        <v>4.4513299999999999E-2</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
       <c r="I26">
-        <v>2.5541600000000001E-2</v>
+        <v>2.1734400000000001E-2</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -10048,17 +10048,17 @@
       <c r="K26">
         <v>10</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="4">
-        <v>4.7070510000000003E-3</v>
+        <v>4.7680730000000003E-3</v>
       </c>
       <c r="N26" t="s">
         <v>17</v>
       </c>
       <c r="O26">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T26" s="4"/>
     </row>
@@ -10070,25 +10070,25 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>6.1578099999999997E-2</v>
+        <v>5.5672699999999999E-2</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27">
-        <v>8.6230100000000004E-3</v>
+        <v>7.0558699999999997E-3</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27">
-        <v>4.3363199999999998E-2</v>
+        <v>4.0925099999999999E-2</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27">
-        <v>2.54659E-2</v>
+        <v>2.1785700000000002E-2</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
@@ -10096,17 +10096,17 @@
       <c r="K27">
         <v>10</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M27" s="4">
-        <v>4.7182509999999997E-3</v>
+        <v>4.8160470000000004E-3</v>
       </c>
       <c r="N27" t="s">
         <v>17</v>
       </c>
       <c r="O27">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T27" s="4"/>
     </row>
@@ -10118,25 +10118,25 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>5.8249200000000001E-2</v>
+        <v>6.6757999999999998E-2</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28">
-        <v>8.6405400000000004E-3</v>
+        <v>7.0449900000000001E-3</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28">
-        <v>4.1089000000000001E-2</v>
+        <v>5.1302800000000003E-2</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28">
-        <v>2.5541700000000001E-2</v>
+        <v>2.1760999999999999E-2</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -10144,17 +10144,17 @@
       <c r="K28">
         <v>10</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="4">
-        <v>5.0974990000000001E-3</v>
+        <v>5.3008079999999997E-3</v>
       </c>
       <c r="N28" t="s">
         <v>17</v>
       </c>
       <c r="O28">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T28" s="4"/>
     </row>
@@ -10166,25 +10166,25 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>6.3757400000000006E-2</v>
+        <v>6.09139E-2</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>8.6050899999999993E-3</v>
+        <v>7.0272299999999998E-3</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>4.44827E-2</v>
+        <v>4.0088800000000001E-2</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29">
-        <v>2.5468999999999999E-2</v>
+        <v>2.17445E-2</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -10192,17 +10192,17 @@
       <c r="K29">
         <v>10</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="4">
-        <v>5.2519109999999997E-3</v>
+        <v>5.5177819999999997E-3</v>
       </c>
       <c r="N29" t="s">
         <v>17</v>
       </c>
       <c r="O29">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T29" s="4"/>
     </row>
@@ -10214,25 +10214,25 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>6.3444200000000006E-2</v>
+        <v>5.57589E-2</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30">
-        <v>8.6223700000000007E-3</v>
+        <v>7.03917E-3</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30">
-        <v>4.3885800000000003E-2</v>
+        <v>4.1073699999999998E-2</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30">
-        <v>2.5507800000000001E-2</v>
+        <v>2.1758E-2</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -10240,17 +10240,17 @@
       <c r="K30">
         <v>10</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M30" s="4">
-        <v>5.532019E-3</v>
+        <v>5.6107040000000002E-3</v>
       </c>
       <c r="N30" t="s">
         <v>17</v>
       </c>
       <c r="O30">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T30" s="4"/>
     </row>
@@ -10262,25 +10262,25 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>5.6987599999999999E-2</v>
+        <v>6.0852099999999999E-2</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31">
-        <v>8.6185299999999992E-3</v>
+        <v>7.0411500000000004E-3</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31">
-        <v>4.0555399999999998E-2</v>
+        <v>4.6127000000000001E-2</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31">
-        <v>2.5420999999999999E-2</v>
+        <v>2.1715999999999999E-2</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -10288,17 +10288,17 @@
       <c r="K31">
         <v>10</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M31" s="4">
-        <v>5.8900280000000003E-3</v>
+        <v>5.779307E-3</v>
       </c>
       <c r="N31" t="s">
         <v>17</v>
       </c>
       <c r="O31">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T31" s="4"/>
     </row>
@@ -10310,25 +10310,25 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>6.0554900000000002E-2</v>
+        <v>7.0108900000000002E-2</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32">
-        <v>8.6612800000000004E-3</v>
+        <v>7.0497900000000002E-3</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32">
-        <v>4.4103299999999998E-2</v>
+        <v>5.3182100000000003E-2</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
       <c r="I32">
-        <v>2.5525300000000001E-2</v>
+        <v>2.1775300000000001E-2</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -10336,17 +10336,17 @@
       <c r="K32">
         <v>10</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M32" s="4">
-        <v>5.6902419999999999E-3</v>
+        <v>5.5253589999999997E-3</v>
       </c>
       <c r="N32" t="s">
         <v>17</v>
       </c>
       <c r="O32">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T32" s="4"/>
     </row>
@@ -10358,25 +10358,25 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>6.3396900000000006E-2</v>
+        <v>5.4502299999999997E-2</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33">
-        <v>8.6350100000000003E-3</v>
+        <v>7.0426600000000001E-3</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33">
-        <v>4.7011799999999999E-2</v>
+        <v>3.9787400000000001E-2</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
       <c r="I33">
-        <v>2.55611E-2</v>
+        <v>2.1750800000000001E-2</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -10384,17 +10384,17 @@
       <c r="K33">
         <v>10</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="4">
-        <v>4.8084709999999999E-3</v>
+        <v>4.8111459999999997E-3</v>
       </c>
       <c r="N33" t="s">
         <v>17</v>
       </c>
       <c r="O33">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T33" s="4"/>
     </row>
@@ -10406,25 +10406,25 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>6.0667400000000003E-2</v>
+        <v>6.8813899999999997E-2</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34">
-        <v>8.6144600000000009E-3</v>
+        <v>7.2060800000000001E-3</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34">
-        <v>4.2806799999999999E-2</v>
+        <v>4.3635699999999999E-2</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
       <c r="I34">
-        <v>2.5499600000000001E-2</v>
+        <v>2.25945E-2</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -10432,17 +10432,17 @@
       <c r="K34">
         <v>10</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M34" s="4">
-        <v>4.2836280000000003E-3</v>
+        <v>4.569549E-3</v>
       </c>
       <c r="N34" t="s">
         <v>17</v>
       </c>
       <c r="O34">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T34" s="4"/>
     </row>
@@ -10454,25 +10454,25 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>6.1682599999999997E-2</v>
+        <v>7.1237200000000001E-2</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35">
-        <v>8.6212500000000004E-3</v>
+        <v>7.2165399999999996E-3</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35">
-        <v>4.5083499999999999E-2</v>
+        <v>5.6177199999999997E-2</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
       <c r="I35">
-        <v>2.5513999999999998E-2</v>
+        <v>2.2601699999999999E-2</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -10480,17 +10480,17 @@
       <c r="K35">
         <v>10</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M35" s="4">
-        <v>4.558487E-3</v>
+        <v>5.0648100000000003E-3</v>
       </c>
       <c r="N35" t="s">
         <v>17</v>
       </c>
       <c r="O35">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T35" s="4"/>
     </row>
@@ -10502,25 +10502,25 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>6.0276799999999998E-2</v>
+        <v>6.6464899999999993E-2</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36">
-        <v>8.6363499999999992E-3</v>
+        <v>7.2136300000000004E-3</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36">
-        <v>4.3791499999999997E-2</v>
+        <v>5.10199E-2</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
       <c r="I36">
-        <v>2.5521100000000001E-2</v>
+        <v>2.2583300000000001E-2</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -10528,17 +10528,17 @@
       <c r="K36">
         <v>10</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M36" s="4">
-        <v>5.2119319999999998E-3</v>
+        <v>5.8924310000000001E-3</v>
       </c>
       <c r="N36" t="s">
         <v>17</v>
       </c>
       <c r="O36">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T36" s="4"/>
     </row>
@@ -10550,25 +10550,25 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>6.1924100000000003E-2</v>
+        <v>6.15664E-2</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>8.6208299999999995E-3</v>
+        <v>7.0359999999999997E-3</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37">
-        <v>4.5583100000000001E-2</v>
+        <v>4.6843299999999997E-2</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
       </c>
       <c r="I37">
-        <v>2.55079E-2</v>
+        <v>2.1872699999999998E-2</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -10576,17 +10576,17 @@
       <c r="K37">
         <v>10</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M37" s="4">
-        <v>5.8891430000000003E-3</v>
+        <v>6.465536E-3</v>
       </c>
       <c r="N37" t="s">
         <v>17</v>
       </c>
       <c r="O37">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T37" s="4"/>
     </row>
@@ -10598,25 +10598,25 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>6.3556199999999993E-2</v>
+        <v>7.2950000000000001E-2</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38">
-        <v>8.6329900000000001E-3</v>
+        <v>7.0684800000000002E-3</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38">
-        <v>4.3834100000000001E-2</v>
+        <v>5.2135099999999997E-2</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
       </c>
       <c r="I38">
-        <v>2.5481199999999999E-2</v>
+        <v>2.1814299999999998E-2</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -10624,17 +10624,17 @@
       <c r="K38">
         <v>10</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M38" s="4">
-        <v>6.2752709999999998E-3</v>
+        <v>6.6028110000000001E-3</v>
       </c>
       <c r="N38" t="s">
         <v>17</v>
       </c>
       <c r="O38">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T38" s="4"/>
     </row>
@@ -10646,25 +10646,25 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>6.2000300000000001E-2</v>
+        <v>5.8320499999999997E-2</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39">
-        <v>8.6380799999999994E-3</v>
+        <v>7.07568E-3</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39">
-        <v>4.5529300000000002E-2</v>
+        <v>4.3538100000000003E-2</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39">
-        <v>2.5452499999999999E-2</v>
+        <v>2.1832500000000001E-2</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -10672,17 +10672,17 @@
       <c r="K39">
         <v>10</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M39" s="4">
-        <v>6.2187650000000002E-3</v>
+        <v>6.3316550000000003E-3</v>
       </c>
       <c r="N39" t="s">
         <v>17</v>
       </c>
       <c r="O39">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T39" s="4"/>
     </row>
@@ -10694,25 +10694,25 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>6.2331999999999999E-2</v>
+        <v>6.8511900000000001E-2</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40">
-        <v>8.6150700000000007E-3</v>
+        <v>7.0333399999999999E-3</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40">
-        <v>4.5979699999999998E-2</v>
+        <v>4.4373200000000002E-2</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
       </c>
       <c r="I40">
-        <v>2.5522199999999998E-2</v>
+        <v>2.1725399999999999E-2</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -10720,17 +10720,17 @@
       <c r="K40">
         <v>10</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M40" s="4">
-        <v>5.8258779999999996E-3</v>
+        <v>5.7521489999999998E-3</v>
       </c>
       <c r="N40" t="s">
         <v>17</v>
       </c>
       <c r="O40">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T40" s="4"/>
     </row>
@@ -10742,25 +10742,25 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>6.0726200000000001E-2</v>
+        <v>5.7442199999999999E-2</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41">
-        <v>8.6391000000000003E-3</v>
+        <v>7.0123199999999998E-3</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>4.4309500000000002E-2</v>
+        <v>4.2752900000000003E-2</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
       </c>
       <c r="I41">
-        <v>2.5505900000000001E-2</v>
+        <v>2.17621E-2</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
@@ -10768,17 +10768,17 @@
       <c r="K41">
         <v>10</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M41" s="4">
-        <v>5.3716850000000002E-3</v>
+        <v>5.434777E-3</v>
       </c>
       <c r="N41" t="s">
         <v>17</v>
       </c>
       <c r="O41">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T41" s="4"/>
     </row>
@@ -10790,25 +10790,25 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>5.9253100000000003E-2</v>
+        <v>7.2921200000000005E-2</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42">
-        <v>8.6453099999999998E-3</v>
+        <v>7.0543000000000003E-3</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42">
-        <v>4.2145099999999998E-2</v>
+        <v>5.8135600000000003E-2</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42">
-        <v>2.5529300000000001E-2</v>
+        <v>2.1730300000000001E-2</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -10816,17 +10816,17 @@
       <c r="K42">
         <v>10</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M42" s="4">
-        <v>5.4855620000000003E-3</v>
+        <v>5.6705979999999998E-3</v>
       </c>
       <c r="N42" t="s">
         <v>17</v>
       </c>
       <c r="O42">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T42" s="4"/>
     </row>
@@ -10838,25 +10838,25 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>6.0625499999999999E-2</v>
+        <v>6.0346200000000003E-2</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43">
-        <v>8.6548800000000002E-3</v>
+        <v>7.0600000000000003E-3</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43">
-        <v>4.2243700000000002E-2</v>
+        <v>4.5606800000000003E-2</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
       </c>
       <c r="I43">
-        <v>2.5503600000000001E-2</v>
+        <v>2.1776400000000001E-2</v>
       </c>
       <c r="J43" t="s">
         <v>15</v>
@@ -10864,17 +10864,17 @@
       <c r="K43">
         <v>10</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M43" s="4">
-        <v>5.9807660000000002E-3</v>
+        <v>6.2895099999999999E-3</v>
       </c>
       <c r="N43" t="s">
         <v>17</v>
       </c>
       <c r="O43">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T43" s="4"/>
     </row>
@@ -10886,25 +10886,25 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>6.2976299999999999E-2</v>
+        <v>5.6632099999999998E-2</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44">
-        <v>8.6492800000000005E-3</v>
+        <v>7.0406100000000001E-3</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44">
-        <v>4.6519600000000001E-2</v>
+        <v>4.1900800000000002E-2</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
       </c>
       <c r="I44">
-        <v>2.5504700000000002E-2</v>
+        <v>2.1744699999999999E-2</v>
       </c>
       <c r="J44" t="s">
         <v>15</v>
@@ -10912,17 +10912,17 @@
       <c r="K44">
         <v>10</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M44" s="4">
-        <v>6.4820989999999998E-3</v>
+        <v>6.8999329999999996E-3</v>
       </c>
       <c r="N44" t="s">
         <v>17</v>
       </c>
       <c r="O44">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T44" s="4"/>
     </row>
@@ -10934,25 +10934,25 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>6.2790299999999993E-2</v>
+        <v>5.3705200000000002E-2</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45">
-        <v>8.6331199999999993E-3</v>
+        <v>7.0060799999999996E-3</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45">
-        <v>4.6303900000000002E-2</v>
+        <v>3.9036399999999999E-2</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
       </c>
       <c r="I45">
-        <v>2.5516E-2</v>
+        <v>2.1760000000000002E-2</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
@@ -10960,17 +10960,17 @@
       <c r="K45">
         <v>10</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M45" s="4">
-        <v>6.8261950000000002E-3</v>
+        <v>7.1975659999999999E-3</v>
       </c>
       <c r="N45" t="s">
         <v>17</v>
       </c>
       <c r="O45">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T45" s="4"/>
     </row>
@@ -10982,25 +10982,25 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>5.7494400000000001E-2</v>
+        <v>6.3374E-2</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46">
-        <v>8.6225299999999998E-3</v>
+        <v>7.0280000000000004E-3</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46">
-        <v>4.11534E-2</v>
+        <v>4.7137400000000003E-2</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
       </c>
       <c r="I46">
-        <v>2.5518099999999998E-2</v>
+        <v>2.1751800000000002E-2</v>
       </c>
       <c r="J46" t="s">
         <v>15</v>
@@ -11008,17 +11008,17 @@
       <c r="K46">
         <v>10</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M46" s="4">
-        <v>6.8889850000000002E-3</v>
+        <v>7.1599899999999998E-3</v>
       </c>
       <c r="N46" t="s">
         <v>17</v>
       </c>
       <c r="O46">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T46" s="4"/>
     </row>
@@ -11030,25 +11030,25 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>6.0985499999999998E-2</v>
+        <v>5.6304699999999999E-2</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47">
-        <v>8.6534400000000001E-3</v>
+        <v>7.05859E-3</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47">
-        <v>4.1368799999999997E-2</v>
+        <v>3.89182E-2</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
       <c r="I47">
-        <v>2.54699E-2</v>
+        <v>2.1762E-2</v>
       </c>
       <c r="J47" t="s">
         <v>15</v>
@@ -11056,17 +11056,17 @@
       <c r="K47">
         <v>10</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="4">
-        <v>7.0596280000000001E-3</v>
+        <v>7.0700570000000003E-3</v>
       </c>
       <c r="N47" t="s">
         <v>17</v>
       </c>
       <c r="O47">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T47" s="4"/>
     </row>
@@ -11078,25 +11078,25 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>6.2355099999999997E-2</v>
+        <v>6.1676399999999999E-2</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48">
-        <v>8.6168300000000007E-3</v>
+        <v>7.0407400000000002E-3</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48">
-        <v>4.2882700000000003E-2</v>
+        <v>4.6972699999999999E-2</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
       <c r="I48">
-        <v>2.5521200000000001E-2</v>
+        <v>2.1750700000000001E-2</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
@@ -11104,17 +11104,17 @@
       <c r="K48">
         <v>10</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M48" s="4">
-        <v>6.9036619999999996E-3</v>
+        <v>6.6155789999999999E-3</v>
       </c>
       <c r="N48" t="s">
         <v>17</v>
       </c>
       <c r="O48">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T48" s="4"/>
     </row>
@@ -11126,25 +11126,25 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>6.1961799999999997E-2</v>
+        <v>5.8208599999999999E-2</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>8.6126699999999994E-3</v>
+        <v>7.1847999999999999E-3</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49">
-        <v>4.5569600000000002E-2</v>
+        <v>4.3222400000000001E-2</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
       <c r="I49">
-        <v>2.54617E-2</v>
+        <v>2.2581199999999999E-2</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
@@ -11152,17 +11152,17 @@
       <c r="K49">
         <v>10</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M49" s="4">
-        <v>5.9139379999999997E-3</v>
+        <v>5.7853210000000004E-3</v>
       </c>
       <c r="N49" t="s">
         <v>17</v>
       </c>
       <c r="O49">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T49" s="4"/>
     </row>
@@ -11174,25 +11174,25 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>5.9812700000000003E-2</v>
+        <v>7.1522199999999994E-2</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50">
-        <v>8.6358400000000005E-3</v>
+        <v>7.0158399999999998E-3</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50">
-        <v>4.3354900000000002E-2</v>
+        <v>5.6808400000000002E-2</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
       </c>
       <c r="I50">
-        <v>2.55027E-2</v>
+        <v>2.1734400000000001E-2</v>
       </c>
       <c r="J50" t="s">
         <v>15</v>
@@ -11200,17 +11200,17 @@
       <c r="K50">
         <v>10</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M50" s="4">
-        <v>5.0075229999999998E-3</v>
+        <v>5.1659080000000003E-3</v>
       </c>
       <c r="N50" t="s">
         <v>17</v>
       </c>
       <c r="O50">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T50" s="4"/>
     </row>
@@ -11222,25 +11222,25 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>6.8230499999999999E-2</v>
+        <v>5.5579099999999999E-2</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51">
-        <v>8.6043200000000004E-3</v>
+        <v>7.0397400000000001E-3</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51">
-        <v>5.0411900000000003E-2</v>
+        <v>4.0880600000000003E-2</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
       <c r="I51">
-        <v>2.5456599999999999E-2</v>
+        <v>2.17293E-2</v>
       </c>
       <c r="J51" t="s">
         <v>15</v>
@@ -11248,17 +11248,17 @@
       <c r="K51">
         <v>10</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M51" s="4">
-        <v>6.3909630000000004E-3</v>
+        <v>6.8146389999999999E-3</v>
       </c>
       <c r="N51" t="s">
         <v>17</v>
       </c>
       <c r="O51">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T51" s="4"/>
     </row>
@@ -11270,25 +11270,25 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>6.3325599999999996E-2</v>
+        <v>6.2581800000000007E-2</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52">
-        <v>8.6156199999999992E-3</v>
+        <v>7.04573E-3</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
       <c r="G52">
-        <v>4.3712899999999999E-2</v>
+        <v>4.47795E-2</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
       <c r="I52">
-        <v>2.5453699999999999E-2</v>
+        <v>2.17293E-2</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -11296,17 +11296,17 @@
       <c r="K52">
         <v>10</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M52" s="4">
-        <v>7.5729860000000003E-3</v>
+        <v>8.2766109999999997E-3</v>
       </c>
       <c r="N52" t="s">
         <v>17</v>
       </c>
       <c r="O52">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T52" s="4"/>
     </row>
@@ -11318,25 +11318,25 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>6.7566000000000001E-2</v>
+        <v>6.7891699999999999E-2</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53">
-        <v>8.6478100000000006E-3</v>
+        <v>7.0488299999999999E-3</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>5.10549E-2</v>
+        <v>5.3114399999999999E-2</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
       </c>
       <c r="I53">
-        <v>2.54997E-2</v>
+        <v>2.1763100000000001E-2</v>
       </c>
       <c r="J53" t="s">
         <v>15</v>
@@ -11344,17 +11344,17 @@
       <c r="K53">
         <v>10</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M53" s="4">
-        <v>8.3450320000000005E-3</v>
+        <v>9.1295960000000002E-3</v>
       </c>
       <c r="N53" t="s">
         <v>17</v>
       </c>
       <c r="O53">
-        <v>1.3580000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T53" s="4"/>
     </row>
@@ -11365,22 +11365,22 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6">
         <f>AVERAGE(C3:C53)</f>
-        <v>6.2189121568627451E-2</v>
+        <v>6.324442941176471E-2</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f>AVERAGE(E3:E53)</f>
-        <v>8.6403419607843143E-3</v>
+        <v>7.0642225490196078E-3</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
         <f>AVERAGE(G3:G53)</f>
-        <v>4.4859084313725477E-2</v>
+        <v>4.630970980392158E-2</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="6">
         <f>AVERAGE(I3:I53)</f>
-        <v>2.5526111764705883E-2</v>
+        <v>2.1872423529411763E-2</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6">
@@ -11390,12 +11390,12 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6">
         <f>AVERAGE(M3:M53)</f>
-        <v>1.8180483294117651E-2</v>
+        <v>1.8397034490196078E-2</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6">
         <f>AVERAGE(O3:O53)</f>
-        <v>1.357999999999999</v>
+        <v>1.7229999999999992</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -11579,8 +11579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01678F02-6852-1843-B1D7-578F6A92EC72}">
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="117" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11642,25 +11642,25 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.204065</v>
+        <v>0.19963500000000001</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>9.3132699999999999E-2</v>
+        <v>8.6299500000000001E-2</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>8.8780700000000004E-2</v>
+        <v>8.9116799999999996E-2</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3">
-        <v>7.1043099999999998E-2</v>
+        <v>6.6975699999999999E-2</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -11678,7 +11678,7 @@
         <v>17</v>
       </c>
       <c r="O3">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20" customHeight="1">
@@ -11686,25 +11686,25 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.198574</v>
+        <v>0.22550000000000001</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>8.7003700000000003E-2</v>
+        <v>8.6307800000000004E-2</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>9.0200500000000003E-2</v>
+        <v>9.7704899999999997E-2</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4">
-        <v>6.7485699999999996E-2</v>
+        <v>6.7131300000000005E-2</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -11722,7 +11722,7 @@
         <v>17</v>
       </c>
       <c r="O4">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="20" customHeight="1">
@@ -11730,25 +11730,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.19306000000000001</v>
+        <v>0.216281</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>8.6271200000000006E-2</v>
+        <v>8.6299799999999996E-2</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
-        <v>8.5373199999999996E-2</v>
+        <v>9.69468E-2</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5">
-        <v>6.6941899999999999E-2</v>
+        <v>6.7230600000000001E-2</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -11766,7 +11766,7 @@
         <v>17</v>
       </c>
       <c r="O5">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="20" customHeight="1">
@@ -11774,25 +11774,25 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.20164599999999999</v>
+        <v>0.212806</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>8.6293800000000004E-2</v>
+        <v>8.6307999999999996E-2</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6">
-        <v>9.4019400000000003E-2</v>
+        <v>9.7884600000000002E-2</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6">
-        <v>6.7115999999999995E-2</v>
+        <v>6.6966499999999998E-2</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -11810,7 +11810,7 @@
         <v>17</v>
       </c>
       <c r="O6">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20" customHeight="1">
@@ -11818,25 +11818,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.193573</v>
+        <v>0.217446</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>8.6244100000000004E-2</v>
+        <v>8.6284E-2</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7">
-        <v>8.3222400000000002E-2</v>
+        <v>0.101579</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7">
-        <v>6.7089399999999993E-2</v>
+        <v>6.6994100000000001E-2</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -11854,7 +11854,7 @@
         <v>17</v>
       </c>
       <c r="O7">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S7" s="4"/>
     </row>
@@ -11863,25 +11863,25 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.19039800000000001</v>
+        <v>0.21301800000000001</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>8.6255799999999994E-2</v>
+        <v>8.6283100000000001E-2</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8">
-        <v>8.2720600000000005E-2</v>
+        <v>9.58228E-2</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8">
-        <v>6.7138500000000004E-2</v>
+        <v>6.7188700000000004E-2</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -11899,7 +11899,7 @@
         <v>17</v>
       </c>
       <c r="O8">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S8" s="4"/>
     </row>
@@ -11908,25 +11908,25 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>0.21158199999999999</v>
+        <v>0.199374</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>8.6246199999999995E-2</v>
+        <v>8.6341299999999996E-2</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9">
-        <v>8.9445899999999995E-2</v>
+        <v>8.9973499999999998E-2</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9">
-        <v>6.7147799999999994E-2</v>
+        <v>6.7006399999999994E-2</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -11944,7 +11944,7 @@
         <v>17</v>
       </c>
       <c r="O9">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S9" s="4"/>
     </row>
@@ -11953,25 +11953,25 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0.19191800000000001</v>
+        <v>0.19783100000000001</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>8.62623E-2</v>
+        <v>8.6296300000000006E-2</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10">
-        <v>8.4229200000000004E-2</v>
+        <v>8.9903800000000006E-2</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10">
-        <v>6.6911300000000007E-2</v>
+        <v>6.7189899999999997E-2</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -11989,7 +11989,7 @@
         <v>17</v>
       </c>
       <c r="O10">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S10" s="4"/>
     </row>
@@ -11998,25 +11998,25 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.195411</v>
+        <v>0.20524000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11">
-        <v>8.6319499999999993E-2</v>
+        <v>8.6320400000000005E-2</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11">
-        <v>8.4715299999999993E-2</v>
+        <v>9.6523399999999995E-2</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11">
-        <v>6.6981899999999997E-2</v>
+        <v>6.7164100000000004E-2</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -12034,7 +12034,7 @@
         <v>17</v>
       </c>
       <c r="O11">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S11" s="4"/>
     </row>
@@ -12043,25 +12043,25 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.19028300000000001</v>
+        <v>0.22417400000000001</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>8.6243E-2</v>
+        <v>8.62903E-2</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12">
-        <v>8.27378E-2</v>
+        <v>0.10101599999999999</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12">
-        <v>6.7133399999999996E-2</v>
+        <v>6.6993300000000006E-2</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -12079,7 +12079,7 @@
         <v>17</v>
       </c>
       <c r="O12">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S12" s="4"/>
     </row>
@@ -12088,25 +12088,25 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>0.18878500000000001</v>
+        <v>0.210312</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>8.6278499999999994E-2</v>
+        <v>8.6267499999999997E-2</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13">
-        <v>8.1146099999999999E-2</v>
+        <v>8.9837299999999995E-2</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13">
-        <v>6.7129499999999995E-2</v>
+        <v>6.7072999999999994E-2</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -12124,7 +12124,7 @@
         <v>17</v>
       </c>
       <c r="O13">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S13" s="4"/>
     </row>
@@ -12133,25 +12133,25 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>0.19214200000000001</v>
+        <v>0.22423699999999999</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>8.6302000000000004E-2</v>
+        <v>8.6305800000000002E-2</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14">
-        <v>8.4457500000000005E-2</v>
+        <v>0.102243</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14">
-        <v>6.7161100000000001E-2</v>
+        <v>6.71794E-2</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -12169,7 +12169,7 @@
         <v>17</v>
       </c>
       <c r="O14">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S14" s="4"/>
     </row>
@@ -12178,25 +12178,25 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.194608</v>
+        <v>0.205847</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15">
-        <v>8.6246699999999996E-2</v>
+        <v>8.6313299999999996E-2</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>8.5032999999999997E-2</v>
+        <v>9.6229499999999996E-2</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15">
-        <v>6.7110900000000001E-2</v>
+        <v>6.7070900000000003E-2</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -12214,7 +12214,7 @@
         <v>17</v>
       </c>
       <c r="O15">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S15" s="4"/>
     </row>
@@ -12223,25 +12223,25 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.19516</v>
+        <v>0.192443</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16">
-        <v>8.6294999999999997E-2</v>
+        <v>8.6278199999999999E-2</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16">
-        <v>8.7474700000000002E-2</v>
+        <v>8.4718799999999997E-2</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16">
-        <v>6.7243999999999998E-2</v>
+        <v>6.7036200000000004E-2</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -12259,7 +12259,7 @@
         <v>17</v>
       </c>
       <c r="O16">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S16" s="4"/>
     </row>
@@ -12268,25 +12268,25 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>0.19409299999999999</v>
+        <v>0.195742</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17">
-        <v>8.6305199999999999E-2</v>
+        <v>8.6269299999999993E-2</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17">
-        <v>8.4749699999999997E-2</v>
+        <v>8.8074399999999997E-2</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>6.7126199999999997E-2</v>
+        <v>6.72267E-2</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -12304,7 +12304,7 @@
         <v>17</v>
       </c>
       <c r="O17">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S17" s="4"/>
     </row>
@@ -12313,25 +12313,25 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.195686</v>
+        <v>0.19353400000000001</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18">
-        <v>8.62729E-2</v>
+        <v>8.6341699999999993E-2</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18">
-        <v>8.80851E-2</v>
+        <v>8.3057500000000006E-2</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18">
-        <v>6.7144800000000004E-2</v>
+        <v>6.7077100000000001E-2</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -12349,7 +12349,7 @@
         <v>17</v>
       </c>
       <c r="O18">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S18" s="4"/>
     </row>
@@ -12358,25 +12358,25 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>0.201543</v>
+        <v>0.20600599999999999</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19">
-        <v>8.6211099999999999E-2</v>
+        <v>8.6271700000000007E-2</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19">
-        <v>9.0772099999999994E-2</v>
+        <v>9.5575499999999994E-2</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19">
-        <v>6.6961400000000004E-2</v>
+        <v>6.7180500000000004E-2</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -12394,7 +12394,7 @@
         <v>17</v>
       </c>
       <c r="O19">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S19" s="4"/>
     </row>
@@ -12403,25 +12403,25 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>0.201019</v>
+        <v>0.209007</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20">
-        <v>8.6301199999999995E-2</v>
+        <v>8.6257100000000003E-2</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20">
-        <v>9.3392199999999995E-2</v>
+        <v>9.6203399999999994E-2</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20">
-        <v>6.7124299999999998E-2</v>
+        <v>6.7137600000000006E-2</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -12439,7 +12439,7 @@
         <v>17</v>
       </c>
       <c r="O20">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S20" s="4"/>
     </row>
@@ -12448,25 +12448,25 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>0.20427200000000001</v>
+        <v>0.20418500000000001</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21">
-        <v>8.6274199999999995E-2</v>
+        <v>8.6245100000000005E-2</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21">
-        <v>9.4319600000000003E-2</v>
+        <v>9.4704999999999998E-2</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21">
-        <v>6.7136500000000002E-2</v>
+        <v>6.7214399999999994E-2</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -12484,7 +12484,7 @@
         <v>17</v>
       </c>
       <c r="O21">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S21" s="4"/>
     </row>
@@ -12493,25 +12493,25 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>0.20510300000000001</v>
+        <v>0.20197899999999999</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22">
-        <v>8.6294800000000005E-2</v>
+        <v>8.6240999999999998E-2</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22">
-        <v>8.7918099999999999E-2</v>
+        <v>8.8540300000000002E-2</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22">
-        <v>6.6990999999999995E-2</v>
+        <v>6.7174399999999995E-2</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -12529,7 +12529,7 @@
         <v>17</v>
       </c>
       <c r="O22">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S22" s="4"/>
     </row>
@@ -12538,25 +12538,25 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>0.205178</v>
+        <v>0.20374999999999999</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>8.6285299999999995E-2</v>
+        <v>8.6267200000000002E-2</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23">
-        <v>9.7364500000000007E-2</v>
+        <v>9.3695700000000007E-2</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23">
-        <v>6.7152000000000003E-2</v>
+        <v>6.7250099999999993E-2</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -12574,7 +12574,7 @@
         <v>17</v>
       </c>
       <c r="O23">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S23" s="4"/>
     </row>
@@ -12583,25 +12583,25 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.2009</v>
+        <v>0.194997</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24">
-        <v>8.6287199999999994E-2</v>
+        <v>8.6327699999999993E-2</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>9.3265799999999996E-2</v>
+        <v>8.7149799999999999E-2</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24">
-        <v>6.7166400000000001E-2</v>
+        <v>6.7188800000000007E-2</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -12619,7 +12619,7 @@
         <v>17</v>
       </c>
       <c r="O24">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S24" s="4"/>
     </row>
@@ -12628,25 +12628,25 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>0.19350500000000001</v>
+        <v>0.20147799999999999</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25">
-        <v>8.6269600000000002E-2</v>
+        <v>8.6335200000000001E-2</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25">
-        <v>8.3256499999999997E-2</v>
+        <v>9.0927800000000003E-2</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25">
-        <v>6.7014599999999994E-2</v>
+        <v>6.7213099999999998E-2</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
@@ -12664,7 +12664,7 @@
         <v>17</v>
       </c>
       <c r="O25">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S25" s="4"/>
     </row>
@@ -12673,25 +12673,25 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>0.19476199999999999</v>
+        <v>0.20591300000000001</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26">
-        <v>8.6247299999999999E-2</v>
+        <v>8.6262699999999998E-2</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26">
-        <v>8.7165999999999993E-2</v>
+        <v>9.6590200000000001E-2</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
       <c r="I26">
-        <v>6.6991099999999998E-2</v>
+        <v>6.7108899999999999E-2</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -12709,7 +12709,7 @@
         <v>17</v>
       </c>
       <c r="O26">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S26" s="4"/>
     </row>
@@ -12718,25 +12718,25 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>0.19612199999999999</v>
+        <v>0.21160499999999999</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27">
-        <v>8.6227200000000004E-2</v>
+        <v>8.6293300000000003E-2</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27">
-        <v>8.8561899999999999E-2</v>
+        <v>9.9392300000000003E-2</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27">
-        <v>6.7154900000000003E-2</v>
+        <v>6.7233799999999996E-2</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
@@ -12754,7 +12754,7 @@
         <v>17</v>
       </c>
       <c r="O27">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S27" s="4"/>
     </row>
@@ -12763,25 +12763,25 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>0.19340099999999999</v>
+        <v>0.20522799999999999</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28">
-        <v>8.6287600000000006E-2</v>
+        <v>8.63149E-2</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28">
-        <v>8.5782200000000003E-2</v>
+        <v>8.9987300000000006E-2</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28">
-        <v>6.6920499999999994E-2</v>
+        <v>6.7156999999999994E-2</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -12799,7 +12799,7 @@
         <v>17</v>
       </c>
       <c r="O28">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S28" s="4"/>
     </row>
@@ -12808,25 +12808,25 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>0.19402800000000001</v>
+        <v>0.19617899999999999</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>8.6294599999999999E-2</v>
+        <v>8.6267899999999995E-2</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>8.6316599999999993E-2</v>
+        <v>8.7834300000000004E-2</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29">
-        <v>6.7169199999999998E-2</v>
+        <v>6.7201999999999998E-2</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -12844,7 +12844,7 @@
         <v>17</v>
       </c>
       <c r="O29">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S29" s="4"/>
     </row>
@@ -12853,25 +12853,25 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0.20183799999999999</v>
+        <v>0.20722499999999999</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30">
-        <v>8.6285200000000006E-2</v>
+        <v>8.6287799999999998E-2</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30">
-        <v>9.4205200000000003E-2</v>
+        <v>9.9461800000000003E-2</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30">
-        <v>6.7123199999999994E-2</v>
+        <v>6.71519E-2</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -12889,7 +12889,7 @@
         <v>17</v>
       </c>
       <c r="O30">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S30" s="4"/>
     </row>
@@ -12898,25 +12898,25 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>0.201014</v>
+        <v>0.19467699999999999</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31">
-        <v>8.6285200000000006E-2</v>
+        <v>8.6281399999999994E-2</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31">
-        <v>9.1667399999999996E-2</v>
+        <v>8.6921899999999996E-2</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31">
-        <v>6.7039299999999996E-2</v>
+        <v>6.7121100000000003E-2</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -12934,7 +12934,7 @@
         <v>17</v>
       </c>
       <c r="O31">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S31" s="4"/>
     </row>
@@ -12943,25 +12943,25 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>0.19708300000000001</v>
+        <v>0.19963900000000001</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32">
-        <v>8.62821E-2</v>
+        <v>8.6277300000000001E-2</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32">
-        <v>8.9083800000000005E-2</v>
+        <v>8.6170099999999999E-2</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
       <c r="I32">
-        <v>6.7128300000000002E-2</v>
+        <v>6.7088400000000006E-2</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -12979,7 +12979,7 @@
         <v>17</v>
       </c>
       <c r="O32">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S32" s="4"/>
     </row>
@@ -12988,25 +12988,25 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>0.20341100000000001</v>
+        <v>0.19605500000000001</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33">
-        <v>8.6227499999999999E-2</v>
+        <v>8.6280899999999994E-2</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33">
-        <v>9.4062400000000004E-2</v>
+        <v>8.5137599999999994E-2</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
       <c r="I33">
-        <v>6.7132399999999995E-2</v>
+        <v>6.7153000000000004E-2</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -13024,7 +13024,7 @@
         <v>17</v>
       </c>
       <c r="O33">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S33" s="4"/>
     </row>
@@ -13033,25 +13033,25 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>0.19744500000000001</v>
+        <v>0.19283700000000001</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34">
-        <v>8.6294800000000005E-2</v>
+        <v>8.6245199999999994E-2</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34">
-        <v>8.9666300000000004E-2</v>
+        <v>8.5112800000000002E-2</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
       <c r="I34">
-        <v>6.7015599999999995E-2</v>
+        <v>6.7161100000000001E-2</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -13069,7 +13069,7 @@
         <v>17</v>
       </c>
       <c r="O34">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S34" s="4"/>
     </row>
@@ -13078,25 +13078,25 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>0.190493</v>
+        <v>0.20325799999999999</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35">
-        <v>8.6300399999999999E-2</v>
+        <v>8.6253200000000002E-2</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35">
-        <v>8.2782599999999998E-2</v>
+        <v>9.3117800000000001E-2</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
       <c r="I35">
-        <v>6.7121200000000006E-2</v>
+        <v>6.7087499999999994E-2</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -13114,7 +13114,7 @@
         <v>17</v>
       </c>
       <c r="O35">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S35" s="4"/>
     </row>
@@ -13123,25 +13123,25 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>0.19891700000000001</v>
+        <v>0.199488</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36">
-        <v>8.6301100000000006E-2</v>
+        <v>8.6309499999999997E-2</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36">
-        <v>9.1125200000000003E-2</v>
+        <v>8.9287199999999997E-2</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
       <c r="I36">
-        <v>6.7091399999999995E-2</v>
+        <v>6.7177399999999998E-2</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -13159,7 +13159,7 @@
         <v>17</v>
       </c>
       <c r="O36">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S36" s="4"/>
     </row>
@@ -13168,25 +13168,25 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>0.19570899999999999</v>
+        <v>0.210841</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>8.6283200000000004E-2</v>
+        <v>8.6321200000000001E-2</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37">
-        <v>8.4784600000000002E-2</v>
+        <v>9.0176500000000007E-2</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
       </c>
       <c r="I37">
-        <v>6.7085400000000003E-2</v>
+        <v>6.7152900000000001E-2</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -13204,7 +13204,7 @@
         <v>17</v>
       </c>
       <c r="O37">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S37" s="4"/>
     </row>
@@ -13213,25 +13213,25 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>0.19081699999999999</v>
+        <v>0.217997</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38">
-        <v>8.6256799999999995E-2</v>
+        <v>8.6259100000000005E-2</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38">
-        <v>8.3260200000000006E-2</v>
+        <v>9.3189499999999995E-2</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
       </c>
       <c r="I38">
-        <v>6.7003400000000005E-2</v>
+        <v>6.7167299999999999E-2</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -13249,7 +13249,7 @@
         <v>17</v>
       </c>
       <c r="O38">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S38" s="4"/>
     </row>
@@ -13258,25 +13258,25 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.195433</v>
+        <v>0.19861000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39">
-        <v>8.6256200000000005E-2</v>
+        <v>8.6327200000000007E-2</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39">
-        <v>8.4619700000000006E-2</v>
+        <v>9.07134E-2</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39">
-        <v>6.6930699999999996E-2</v>
+        <v>6.7260399999999998E-2</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -13294,7 +13294,7 @@
         <v>17</v>
       </c>
       <c r="O39">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S39" s="4"/>
     </row>
@@ -13303,25 +13303,25 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>0.19408500000000001</v>
+        <v>0.201602</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40">
-        <v>8.62599E-2</v>
+        <v>8.6340700000000006E-2</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40">
-        <v>8.6398799999999998E-2</v>
+        <v>9.3247999999999998E-2</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
       </c>
       <c r="I40">
-        <v>6.7062700000000003E-2</v>
+        <v>6.7036200000000004E-2</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -13339,7 +13339,7 @@
         <v>17</v>
       </c>
       <c r="O40">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S40" s="4"/>
     </row>
@@ -13348,25 +13348,25 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0.202263</v>
+        <v>0.20638500000000001</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41">
-        <v>8.6189799999999997E-2</v>
+        <v>8.6343799999999998E-2</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>9.1757699999999998E-2</v>
+        <v>9.4963699999999998E-2</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
       </c>
       <c r="I41">
-        <v>6.7134399999999997E-2</v>
+        <v>6.7157900000000006E-2</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
@@ -13384,7 +13384,7 @@
         <v>17</v>
       </c>
       <c r="O41">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S41" s="4"/>
     </row>
@@ -13393,25 +13393,25 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>0.20622299999999999</v>
+        <v>0.20636299999999999</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42">
-        <v>8.61566E-2</v>
+        <v>8.6319999999999994E-2</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42">
-        <v>9.5303499999999999E-2</v>
+        <v>9.8421599999999998E-2</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42">
-        <v>6.7051399999999997E-2</v>
+        <v>6.7138500000000004E-2</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -13429,7 +13429,7 @@
         <v>17</v>
       </c>
       <c r="O42">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S42" s="4"/>
     </row>
@@ -13438,25 +13438,25 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>0.19240499999999999</v>
+        <v>0.19648199999999999</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43">
-        <v>8.6252499999999996E-2</v>
+        <v>8.6302699999999996E-2</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43">
-        <v>8.1451499999999996E-2</v>
+        <v>8.5234000000000004E-2</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
       </c>
       <c r="I43">
-        <v>6.6982899999999998E-2</v>
+        <v>6.7159999999999997E-2</v>
       </c>
       <c r="J43" t="s">
         <v>15</v>
@@ -13474,7 +13474,7 @@
         <v>17</v>
       </c>
       <c r="O43">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S43" s="4"/>
     </row>
@@ -13483,25 +13483,25 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>0.189225</v>
+        <v>0.21574199999999999</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44">
-        <v>8.6257600000000004E-2</v>
+        <v>8.6244299999999996E-2</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44">
-        <v>8.1548700000000002E-2</v>
+        <v>9.1628899999999999E-2</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
       </c>
       <c r="I44">
-        <v>6.7161100000000001E-2</v>
+        <v>6.6995100000000002E-2</v>
       </c>
       <c r="J44" t="s">
         <v>15</v>
@@ -13519,7 +13519,7 @@
         <v>17</v>
       </c>
       <c r="O44">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S44" s="4"/>
     </row>
@@ -13528,25 +13528,25 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>0.200714</v>
+        <v>0.19603999999999999</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45">
-        <v>8.6219199999999996E-2</v>
+        <v>8.6251700000000001E-2</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45">
-        <v>9.3121700000000002E-2</v>
+        <v>8.8426199999999996E-2</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
       </c>
       <c r="I45">
-        <v>6.7167199999999996E-2</v>
+        <v>6.7105799999999993E-2</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
@@ -13564,7 +13564,7 @@
         <v>17</v>
       </c>
       <c r="O45">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S45" s="4"/>
     </row>
@@ -13573,25 +13573,25 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>0.20063600000000001</v>
+        <v>0.22741400000000001</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46">
-        <v>8.6276000000000005E-2</v>
+        <v>8.6364800000000005E-2</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46">
-        <v>9.2169200000000007E-2</v>
+        <v>9.5860500000000001E-2</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
       </c>
       <c r="I46">
-        <v>6.7075099999999999E-2</v>
+        <v>6.7157999999999995E-2</v>
       </c>
       <c r="J46" t="s">
         <v>15</v>
@@ -13609,7 +13609,7 @@
         <v>17</v>
       </c>
       <c r="O46">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S46" s="4"/>
     </row>
@@ -13618,25 +13618,25 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>0.204703</v>
+        <v>0.22412199999999999</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47">
-        <v>8.6298399999999997E-2</v>
+        <v>8.6238300000000004E-2</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47">
-        <v>9.7070100000000006E-2</v>
+        <v>0.101755</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
       <c r="I47">
-        <v>6.71427E-2</v>
+        <v>6.7162100000000002E-2</v>
       </c>
       <c r="J47" t="s">
         <v>15</v>
@@ -13654,7 +13654,7 @@
         <v>17</v>
       </c>
       <c r="O47">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S47" s="4"/>
     </row>
@@ -13663,25 +13663,25 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>0.203961</v>
+        <v>0.22483900000000001</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48">
-        <v>8.62898E-2</v>
+        <v>8.62985E-2</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48">
-        <v>9.6378800000000001E-2</v>
+        <v>0.108977</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
       <c r="I48">
-        <v>6.7008399999999996E-2</v>
+        <v>6.7050399999999996E-2</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
@@ -13699,7 +13699,7 @@
         <v>17</v>
       </c>
       <c r="O48">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S48" s="4"/>
     </row>
@@ -13708,25 +13708,25 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>0.205317</v>
+        <v>0.21455199999999999</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>8.6219599999999993E-2</v>
+        <v>8.6318199999999998E-2</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49">
-        <v>9.7691399999999998E-2</v>
+        <v>9.17375E-2</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
       <c r="I49">
-        <v>6.7132499999999998E-2</v>
+        <v>6.7194900000000002E-2</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
@@ -13744,7 +13744,7 @@
         <v>17</v>
       </c>
       <c r="O49">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S49" s="4"/>
     </row>
@@ -13753,25 +13753,25 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>0.205902</v>
+        <v>0.205738</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50">
-        <v>8.6300100000000005E-2</v>
+        <v>8.6298700000000006E-2</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50">
-        <v>8.90793E-2</v>
+        <v>9.2393500000000003E-2</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
       </c>
       <c r="I50">
-        <v>6.7204100000000003E-2</v>
+        <v>6.7207199999999995E-2</v>
       </c>
       <c r="J50" t="s">
         <v>15</v>
@@ -13789,7 +13789,7 @@
         <v>17</v>
       </c>
       <c r="O50">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S50" s="4"/>
     </row>
@@ -13798,25 +13798,25 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0.20601900000000001</v>
+        <v>0.20535100000000001</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51">
-        <v>8.6269399999999996E-2</v>
+        <v>8.6270700000000006E-2</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51">
-        <v>9.8373000000000002E-2</v>
+        <v>9.5679200000000006E-2</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
       <c r="I51">
-        <v>6.7156900000000005E-2</v>
+        <v>6.7178500000000002E-2</v>
       </c>
       <c r="J51" t="s">
         <v>15</v>
@@ -13834,7 +13834,7 @@
         <v>17</v>
       </c>
       <c r="O51">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S51" s="4"/>
     </row>
@@ -13843,25 +13843,25 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>0.19176000000000001</v>
+        <v>0.205822</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52">
-        <v>8.6274500000000004E-2</v>
+        <v>8.6291900000000005E-2</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
       <c r="G52">
-        <v>8.4077600000000002E-2</v>
+        <v>9.5672400000000005E-2</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
       <c r="I52">
-        <v>6.69656E-2</v>
+        <v>6.7166199999999995E-2</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -13879,7 +13879,7 @@
         <v>17</v>
       </c>
       <c r="O52">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S52" s="4"/>
     </row>
@@ -13888,25 +13888,25 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>0.19763800000000001</v>
+        <v>0.19176399999999999</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53">
-        <v>8.6250199999999999E-2</v>
+        <v>8.6313399999999998E-2</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>9.0039499999999995E-2</v>
+        <v>8.4059900000000007E-2</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
       </c>
       <c r="I53">
-        <v>6.7194799999999999E-2</v>
+        <v>6.7096600000000006E-2</v>
       </c>
       <c r="J53" t="s">
         <v>15</v>
@@ -13924,7 +13924,7 @@
         <v>17</v>
       </c>
       <c r="O53">
-        <v>1.8720000000000001</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="S53" s="4"/>
     </row>
@@ -13938,22 +13938,22 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6">
         <f>AVERAGE(C3:C53)</f>
-        <v>0.19791819607843139</v>
+        <v>0.20620764705882347</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f>AVERAGE(E3:E53)</f>
-        <v>8.6416447058823523E-2</v>
+        <v>8.629275686274511E-2</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
         <f>AVERAGE(G3:G53)</f>
-        <v>8.8710290196078415E-2</v>
+        <v>9.2913327450980368E-2</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="6">
         <f>AVERAGE(I3:I53)</f>
-        <v>6.7172511764705872E-2</v>
+        <v>6.7135154901960759E-2</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6">
@@ -13968,7 +13968,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6">
         <f>AVERAGE(O3:O53)</f>
-        <v>1.8720000000000001</v>
+        <v>2.2369999999999983</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>

--- a/xjh/TEST/Onera/postprocess.xlsx
+++ b/xjh/TEST/Onera/postprocess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xjh/thesis/xjh/TEST/Onera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6BE61C-C17C-2242-8D21-141FDEB69A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420C1E46-A89F-2C4A-A590-8C01B0A4C0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{E813E3D2-8B92-5C49-8DD6-185F646B6F3F}"/>
   </bookViews>
@@ -571,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BEE77C-FC9B-2A4B-B70C-ACB86D236C97}">
   <dimension ref="A1:BP256"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="83" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="H28" zoomScale="83" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
@@ -8834,8 +8834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60AECBB-FA79-814B-BF8F-04A58F7DEA5D}">
   <dimension ref="A1:AA137"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O54"/>
+    <sheetView topLeftCell="D1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11579,8 +11579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01678F02-6852-1843-B1D7-578F6A92EC72}">
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="117" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O54"/>
+    <sheetView tabSelected="1" topLeftCell="H38" zoomScale="117" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
